--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/armendazizi/Documents/Master/Software Design/Assignments/Assignment4/SoftwareDesign/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559A7A2D-8FA9-B844-A9FE-527ACA9574D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C68CA7-411C-5F4E-9DDB-6C46895D963D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4040" yWindow="1580" windowWidth="28040" windowHeight="17440" xr2:uid="{11A65248-1295-D142-85BC-76B172941A38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -377,15 +378,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5965B230-6C16-3A4E-8ED8-6AA5ACAA2AD5}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>3</v>
       </c>
@@ -403,6 +404,99 @@
       <c r="E1">
         <f>C1+D1</f>
         <v>8</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <f>SUM(G1:G14)</f>
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E60D5F4-92D9-2A4E-A9A1-B70F116BBA5A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <f>Sheet1!B1+Sheet1!D1</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
